--- a/SpecialtyDoctorMatching.xlsx
+++ b/SpecialtyDoctorMatching.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plasser\Documents\Changing-the-World\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\storres\Documents\Changing-the-World\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,10 @@
   <sheets>
     <sheet name="Specialty" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Specialty!$A$1:$H$49</definedName>
+  </definedNames>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>Specialty</t>
   </si>
@@ -71,9 +74,6 @@
     <t>urinary</t>
   </si>
   <si>
-    <t>Hospitalist</t>
-  </si>
-  <si>
     <t>Pediatrics</t>
   </si>
   <si>
@@ -134,9 +134,6 @@
     <t>Otolaryngology</t>
   </si>
   <si>
-    <t>ENT</t>
-  </si>
-  <si>
     <t>ears nose and throat</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
     <t>pulmo</t>
   </si>
   <si>
-    <t>Behavioral Pediatrics</t>
-  </si>
-  <si>
     <t>Cardiology</t>
   </si>
   <si>
@@ -236,9 +230,6 @@
     <t>radiology</t>
   </si>
   <si>
-    <t>onco</t>
-  </si>
-  <si>
     <t>Critical Care</t>
   </si>
   <si>
@@ -318,6 +309,99 @@
   </si>
   <si>
     <t>Pharmacy</t>
+  </si>
+  <si>
+    <t>Imaging</t>
+  </si>
+  <si>
+    <t>Inpatient</t>
+  </si>
+  <si>
+    <t>Abuse</t>
+  </si>
+  <si>
+    <t>Advocacy</t>
+  </si>
+  <si>
+    <t>Birthing</t>
+  </si>
+  <si>
+    <t>Continence</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Fetal</t>
+  </si>
+  <si>
+    <t>Genetics</t>
+  </si>
+  <si>
+    <t>Infertility</t>
+  </si>
+  <si>
+    <t>MRI</t>
+  </si>
+  <si>
+    <t>Neonatal</t>
+  </si>
+  <si>
+    <t>Neurophysiology</t>
+  </si>
+  <si>
+    <t>PT/OT</t>
+  </si>
+  <si>
+    <t>Pulmonology</t>
+  </si>
+  <si>
+    <t>Spine</t>
+  </si>
+  <si>
+    <t>Ophthalmology</t>
+  </si>
+  <si>
+    <t>occupational</t>
+  </si>
+  <si>
+    <t>physical therapy</t>
+  </si>
+  <si>
+    <t>Respiratory</t>
+  </si>
+  <si>
+    <t>baby</t>
+  </si>
+  <si>
+    <t>diabetes</t>
+  </si>
+  <si>
+    <t>musculo</t>
+  </si>
+  <si>
+    <t>audio</t>
+  </si>
+  <si>
+    <t>substance</t>
+  </si>
+  <si>
+    <t>pharm</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>behavioral pedia</t>
+  </si>
+  <si>
+    <t>orthsam</t>
+  </si>
+  <si>
+    <t>Laboratory</t>
+  </si>
+  <si>
+    <t>Lab</t>
   </si>
 </sst>
 </file>
@@ -353,8 +437,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,15 +754,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="20.6640625" customWidth="1"/>
+    <col min="1" max="7" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -708,346 +793,455 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>91</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>93</v>
       </c>
-      <c r="B33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>97</v>
+      <c r="B38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>